--- a/Test_Planner/SAP_OTC_Regression.xlsx
+++ b/Test_Planner/SAP_OTC_Regression.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP_Regression\SAPRegression\Test_Planner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP_Regression\Test_Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CFFA8D-9353-4464-A973-B7BFE1AE8587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17410223-08BB-4F34-9885-4CB7340F7881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3F52AFC6-D99D-4450-AD0F-1227D9226E9B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>SuteName</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>SAP_OTC_Regression</t>
+  </si>
+  <si>
+    <t>KBE_51_002</t>
   </si>
 </sst>
 </file>
@@ -512,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF3798-65B8-4491-99A4-6813C24FCF65}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,6 +561,23 @@
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>5490981</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -576,7 +596,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{DE21EE38-54D7-44B6-A9E8-B480FE2F7BC6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{DE21EE38-54D7-44B6-A9E8-B480FE2F7BC6}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -586,9 +606,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -795,27 +818,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34FB7BFF-CBF3-491F-A454-15CC4708CCB1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5492E-A32A-41EE-AAEE-6E8BE77D7028}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f8d9bec8-ea51-4f0f-8110-f49fc874611e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a577898b-6855-4c00-94c2-65f3a1a2604e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -840,9 +851,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5492E-A32A-41EE-AAEE-6E8BE77D7028}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34FB7BFF-CBF3-491F-A454-15CC4708CCB1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f8d9bec8-ea51-4f0f-8110-f49fc874611e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a577898b-6855-4c00-94c2-65f3a1a2604e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Test_Planner/SAP_OTC_Regression.xlsx
+++ b/Test_Planner/SAP_OTC_Regression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP_Regression\Test_Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17410223-08BB-4F34-9885-4CB7340F7881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BD5458-3D51-41FE-AD5C-716156A1665D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3F52AFC6-D99D-4450-AD0F-1227D9226E9B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>SuteName</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>KBE_51_002</t>
+  </si>
+  <si>
+    <t>ts_KBE_68_002_SocietiesAndMembershipOrdering</t>
+  </si>
+  <si>
+    <t>KBE_51_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ts_KBE_51_001_CreateAnOrderInWOLBookstoreForAnEMRWAndInterfacetoSAP    </t>
+  </si>
+  <si>
+    <t>ts_KBE_52_003_BP_CreateBusinessPartner</t>
   </si>
 </sst>
 </file>
@@ -515,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF3798-65B8-4491-99A4-6813C24FCF65}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,7 +572,7 @@
         <v>5488131</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -577,7 +589,24 @@
         <v>5490981</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>5491297</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +625,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{DE21EE38-54D7-44B6-A9E8-B480FE2F7BC6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{DE21EE38-54D7-44B6-A9E8-B480FE2F7BC6}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -606,12 +635,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -818,15 +844,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5492E-A32A-41EE-AAEE-6E8BE77D7028}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34FB7BFF-CBF3-491F-A454-15CC4708CCB1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f8d9bec8-ea51-4f0f-8110-f49fc874611e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a577898b-6855-4c00-94c2-65f3a1a2604e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -851,18 +889,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34FB7BFF-CBF3-491F-A454-15CC4708CCB1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5492E-A32A-41EE-AAEE-6E8BE77D7028}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f8d9bec8-ea51-4f0f-8110-f49fc874611e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a577898b-6855-4c00-94c2-65f3a1a2604e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>